--- a/report/ami_responses.xlsx
+++ b/report/ami_responses.xlsx
@@ -430,7 +430,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://ami-preview.abbviepro.com/libs/granite/csrf/token.json</v>
+        <v>https://ami-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/allergan-pro-ami/basic-login/jcr:content</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -438,18 +438,18 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://ami-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/allergan-pro-ami/basic-login/jcr:content</v>
+        <v>https://ami-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://ami-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
+        <v>https://ami-preview.abbviepro.com/libs/granite/csrf/token.json</v>
       </c>
       <c r="B6">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -500,34 +500,34 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://preview.abbvieinstitute.ca/libs/granite/csrf/token.json</v>
+        <v>https://preview.abbvieinstitute.ca/bin/public/abbvie-commons/basic-login</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://preview.abbvieinstitute.ca/bin/public/abbvie-commons/hreflangs?resourcePath=/content/allergan-pro-ami/ca/en/basic-login/jcr:content</v>
+        <v>https://preview.abbvieinstitute.ca/</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://preview.abbvieinstitute.ca/bin/public/abbvie-commons/basic-login</v>
+        <v>https://preview.abbvieinstitute.ca/libs/granite/csrf/token.json</v>
       </c>
       <c r="B6">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://preview.abbvieinstitute.ca/</v>
+        <v>https://preview.abbvieinstitute.ca/bin/public/abbvie-commons/hreflangs?resourcePath=/content/allergan-pro-ami/ca/en/basic-login/jcr:content</v>
       </c>
       <c r="B7">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -604,7 +604,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+        <v>https://preview.abbvieinstitute.ca/content/dam/allergan-pro-ami/ca/AMIColorfulLogo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
+        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://preview.abbvieinstitute.ca/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
+        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://preview.abbvieinstitute.ca/content/dam/allergan-pro-ami/ca/AMIColorfulLogo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/ca-meta-navigation/clientlibs.min.css</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/ca-meta-navigation/clientlibs.min.css</v>
+        <v>https://preview.abbvieinstitute.ca/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/overlay-component/clientlibs.min.js</v>
+        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
       </c>
       <c r="B26">
         <v>200</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/button-redirect-logout/clientlibs.min.js</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/button-redirect-logout/clientlibs.min.js</v>
+        <v>https://preview.abbvieinstitute.ca/etc.clientlibs/abbvie-pro/components/content/overlay-component/clientlibs.min.js</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -700,15 +700,15 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://preview.abbvieinstitute.ca/libs/granite/csrf/token.json</v>
+        <v>https://preview.abbvieinstitute.ca/content/allergan-pro-ami/ca/en/jcr:content/header/ca_header_area/image-extension/item_1.coreimg.png/1659941845267-AMIColorfulLogo.png</v>
       </c>
       <c r="B29">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://preview.abbvieinstitute.ca/content/dam/allergan-pro-ami/ca/ami_home3.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://preview.abbvieinstitute.ca/libs/granite/csrf/token.json</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://preview.abbvieinstitute.ca/content/allergan-pro-ami/ca/en/jcr:content/header/ca_header_area/image-extension/item_1.coreimg.png/1659941845267-AMIColorfulLogo.png</v>
+        <v>https://preview.abbvieinstitute.ca/content/allergan-pro-ami/ca/en/jcr%3acontent/header/ca_header_area/image-extension/item_1.coreimg.png/1659952345719.png</v>
       </c>
       <c r="B31">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32">
@@ -740,7 +740,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+        <v>https://preview.abbvieinstitute.ca/content/dam/allergan-pro-ami/ca/ami_home3.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B34">
         <v>200</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
       </c>
       <c r="B35">
         <v>200</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://preview.abbvieinstitute.ca/content/allergan-pro-ami/ca/en/jcr%3acontent/header/ca_header_area/image-extension/item_1.coreimg.png/1659952345719.png</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
       </c>
       <c r="B36">
         <v>200</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
       </c>
       <c r="B37">
         <v>200</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://consent.trustarc.com/v2/asset/11:51:11.658rqwfyo_AbbVieID-logo.png</v>
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
       </c>
       <c r="B38">
         <v>200</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=rqwfyo&amp;referer=&amp;fullURL=https%3A%2F%2Fpreview.abbvieinstitute.ca%2FBienvenue.html&amp;category=</v>
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
       </c>
       <c r="B39">
         <v>200</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=rqwfyo&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.6998938603819673&amp;session=cce0adc6-3504-4353-9b0e-e6dfdf966e1f&amp;userType=NEW</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=rqwfyo&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.4463569742763953&amp;session=6ed4a4bd-e0ef-4bf9-9dc7-70a108d11e4f&amp;userType=NEW</v>
       </c>
       <c r="B40">
         <v>202</v>
@@ -796,15 +796,15 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=rqwfyo&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.6722086715156101&amp;session=6ed4a4bd-e0ef-4bf9-9dc7-70a108d11e4f&amp;userType=NEW</v>
       </c>
       <c r="B41">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+        <v>https://consent.trustarc.com/v2/asset/11:51:11.658rqwfyo_AbbVieID-logo.png</v>
       </c>
       <c r="B42">
         <v>200</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=rqwfyo&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.07701190421010295&amp;session=cce0adc6-3504-4353-9b0e-e6dfdf966e1f&amp;userType=NEW</v>
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=rqwfyo&amp;referer=&amp;fullURL=https%3A%2F%2Fpreview.abbvieinstitute.ca%2FBienvenue.html&amp;category=</v>
       </c>
       <c r="B43">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +827,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -850,39 +850,39 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://preview.institutabbvie.ca/libs/granite/csrf/token.json</v>
+        <v>https://preview.institutabbvie.ca/bin/public/abbvie-commons/basic-login</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://preview.institutabbvie.ca/bin/public/abbvie-commons/hreflangs?resourcePath=/content/allergan-pro-ami/ca/fr/basic-login/jcr:content</v>
+        <v>https://preview.institutabbvie.ca/</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://preview.institutabbvie.ca/bin/public/abbvie-commons/basic-login</v>
+        <v>https://preview.institutabbvie.ca/libs/granite/csrf/token.json</v>
       </c>
       <c r="B5">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://preview.institutabbvie.ca/</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro-ami/publish-header.min.css</v>
       </c>
       <c r="B6">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://preview.institutabbvie.ca/Welcome.html</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro-ami/publish-header.min.js</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro-ami/publish-header.min.css</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro-ami/publish-header.min.js</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile_nav.png</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+        <v>https://preview.institutabbvie.ca/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
+        <v>https://preview.institutabbvie.ca/Welcome.html</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://preview.institutabbvie.ca/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile_nav.png</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/ca-meta-navigation/clientlibs.min.js</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/ca-meta-navigation/clientlibs.min.js</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/button-redirect-logout/clientlibs.min.js</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/button-redirect-logout/clientlibs.min.js</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/ca-meta-navigation/clientlibs.min.css</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/ca-meta-navigation/clientlibs.min.css</v>
+        <v>https://preview.institutabbvie.ca/content/dam/allergan-pro-ami/ca/L_AbbVie%20Institute%20RGB%20F-01-2.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://preview.institutabbvie.ca/content/dam/allergan-pro-ami/ca/L_AbbVie%20Institute%20RGB%20F-01-2.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://consent.trustarc.com/v2/notice/v8idiw</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://consent.trustarc.com/v2/notice/v8idiw</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/overlay-component/clientlibs.min.js</v>
       </c>
       <c r="B26">
         <v>200</v>
@@ -1042,15 +1042,15 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+        <v>https://preview.institutabbvie.ca/content/allergan-pro-ami/ca/fr/jcr:content/header/ca_header_area/image-extension/item_1.coreimg.png/1663736091306-L_AbbVie%20Institute%20RGB%20F-01-2.png</v>
       </c>
       <c r="B27">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
       </c>
       <c r="B29">
         <v>200</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/components/content/overlay-component/clientlibs.min.js</v>
+        <v>https://preview.institutabbvie.ca/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+        <v>https://preview.institutabbvie.ca/libs/granite/csrf/token.json</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://preview.institutabbvie.ca/libs/granite/csrf/token.json</v>
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -1090,15 +1090,15 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://preview.institutabbvie.ca/content/allergan-pro-ami/ca/fr/jcr:content/header/ca_header_area/image-extension/item_1.coreimg.png/1663736091306-L_AbbVie%20Institute%20RGB%20F-01-2.png</v>
+        <v>https://consent.trustarc.com/v2/asset/11:37:54.164v8idiw_AbbVieID-logo.png</v>
       </c>
       <c r="B33">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://preview.institutabbvie.ca/bin/public/abbvie-commons/hreflangs?resourcePath=/content/allergan-pro-ami/ca/fr/Bienvenue/jcr:content</v>
+        <v>https://preview.institutabbvie.ca/content/allergan-pro-ami/ca/fr/jcr%3acontent/header/ca_header_area/image-extension/item_1.coreimg.png/1663736100272.png</v>
       </c>
       <c r="B34">
         <v>200</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=v8idiw&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.9003687009666022&amp;session=68f96d60-cb14-41f3-94fb-91a8c07a14ca&amp;userType=NEW</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=v8idiw&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.5387829310219401&amp;session=689b921a-1fca-41d3-a81a-274264977751&amp;userType=NEW</v>
       </c>
       <c r="B35">
         <v>202</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=v8idiw&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.8375560196196523&amp;session=68f96d60-cb14-41f3-94fb-91a8c07a14ca&amp;userType=NEW</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=v8idiw&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.37401933919619923&amp;session=689b921a-1fca-41d3-a81a-274264977751&amp;userType=NEW</v>
       </c>
       <c r="B36">
         <v>202</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://preview.institutabbvie.ca/content/allergan-pro-ami/ca/fr/jcr%3acontent/header/ca_header_area/image-extension/item_1.coreimg.png/1663736100272.png</v>
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=v8idiw&amp;referer=&amp;fullURL=https%3A%2F%2Fpreview.institutabbvie.ca%2FWelcome.html&amp;category=</v>
       </c>
       <c r="B37">
         <v>200</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://consent.trustarc.com/v2/asset/11:37:54.164v8idiw_AbbVieID-logo.png</v>
+        <v>https://preview.institutabbvie.ca/bin/public/abbvie-commons/hreflangs?resourcePath=/content/allergan-pro-ami/ca/fr/Bienvenue/jcr:content</v>
       </c>
       <c r="B38">
         <v>200</v>
@@ -1154,23 +1154,15 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=v8idiw&amp;referer=&amp;fullURL=https%3A%2F%2Fpreview.institutabbvie.ca%2FWelcome.html&amp;category=</v>
+        <v>https://preview.institutabbvie.ca/content/dam/allergan-pro-ami/ca/ami_home3.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>https://preview.institutabbvie.ca/content/dam/allergan-pro-ami/ca/ami_home3.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B42">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B41"/>
   </ignoredErrors>
 </worksheet>
 </file>